--- a/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
+++ b/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\project\docs\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21243A7E-B40B-4F62-BFB0-A2C5D3B04DA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D253151-24B9-4AC1-A103-94846B2D4A66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Projektplanung, Git</t>
+  </si>
+  <si>
+    <t>CRUD Room Service</t>
+  </si>
+  <si>
+    <t>CRUD Room Service, Repo, Model</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -614,7 +620,7 @@
       </c>
       <c r="F4" s="7">
         <f>SUM(B2:B24)</f>
-        <v>0.86111111111111094</v>
+        <v>0.9444444444444442</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -744,14 +750,32 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>43910</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>43912</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>

--- a/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
+++ b/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F8A94-1333-4993-B74B-4B5AA9B1D403}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C5570-B1DA-41C2-A03F-C8867F51CE57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="2448" yWindow="48" windowWidth="16308" windowHeight="10248" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>Bugs aufarbeiten</t>
+  </si>
+  <si>
+    <t>MailService, Config</t>
+  </si>
+  <si>
+    <t>test email, fix bugs</t>
+  </si>
+  <si>
+    <t>save room</t>
+  </si>
+  <si>
+    <t>frontend xhtml room/s, department xhtml</t>
+  </si>
+  <si>
+    <t>delete department, queries</t>
   </si>
 </sst>
 </file>
@@ -566,10 +581,10 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -920,34 +935,88 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>43931</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>43933</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>43934</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>43935</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>43935</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>43936</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8"/>

--- a/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
+++ b/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C5570-B1DA-41C2-A03F-C8867F51CE57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A34657-BC58-4511-9D68-B06DB2B21325}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="48" windowWidth="16308" windowHeight="10248" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -168,7 +168,22 @@
     <t>frontend xhtml room/s, department xhtml</t>
   </si>
   <si>
-    <t>delete department, queries</t>
+    <t>delete department, queries, exception</t>
+  </si>
+  <si>
+    <t>delete team, raspi</t>
+  </si>
+  <si>
+    <t>Secure Coding workshop</t>
+  </si>
+  <si>
+    <t>show team and department members</t>
+  </si>
+  <si>
+    <t>shedule email cron, frequency type service, ui, query</t>
+  </si>
+  <si>
+    <t>shedule cron</t>
   </si>
 </sst>
 </file>
@@ -581,10 +596,10 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -643,7 +658,7 @@
         <v>43894</v>
       </c>
       <c r="B4" s="7">
-        <v>1.3888888888888888E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -729,7 +744,7 @@
         <v>43902</v>
       </c>
       <c r="B10" s="7">
-        <v>7.6388888888888895E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -743,7 +758,7 @@
         <v>43902</v>
       </c>
       <c r="B11" s="7">
-        <v>6.9444444444444434E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -771,7 +786,7 @@
         <v>43908</v>
       </c>
       <c r="B13" s="7">
-        <v>7.6388888888888895E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -897,7 +912,7 @@
         <v>43924</v>
       </c>
       <c r="B22" s="7">
-        <v>6.9444444444444441E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -936,58 +951,58 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="B25" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B26" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B27" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B28" s="7">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -995,68 +1010,138 @@
         <v>43935</v>
       </c>
       <c r="B29" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8">
+        <v>43935</v>
+      </c>
+      <c r="B30" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8">
         <v>43936</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="7">
         <v>0.125</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
-    </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>43937</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>43938</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>43939</v>
+      </c>
+      <c r="B34" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="8">
+        <v>43941</v>
+      </c>
+      <c r="B35" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>43941</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>43941</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>43941</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8"/>
@@ -1073,11 +1158,6 @@
       <c r="B41" s="7"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
-    </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8"/>
       <c r="B43" s="7"/>
@@ -1093,11 +1173,6 @@
       <c r="B45" s="7"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
-    </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8"/>
       <c r="B47" s="7"/>
@@ -5878,7 +5953,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5886,7 +5961,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1001</xm:sqref>
+          <xm:sqref>C2:C41 C43:C45 C47:C1001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
+++ b/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A34657-BC58-4511-9D68-B06DB2B21325}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A243578-A0AD-4117-95E4-A9070101A21E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="5532" yWindow="228" windowWidth="16308" windowHeight="10248" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -184,6 +184,36 @@
   </si>
   <si>
     <t>shedule cron</t>
+  </si>
+  <si>
+    <t>add_room</t>
+  </si>
+  <si>
+    <t>finally fix target unreachable exception, assign team and dep to user</t>
+  </si>
+  <si>
+    <t>fix english</t>
+  </si>
+  <si>
+    <t>filter and sort all views</t>
+  </si>
+  <si>
+    <t>search for assign team not safable bug</t>
+  </si>
+  <si>
+    <t>statistic service, controller, view</t>
+  </si>
+  <si>
+    <t>statistic last month last 24h employee</t>
+  </si>
+  <si>
+    <t>statistic last week employee controller, data, view</t>
+  </si>
+  <si>
+    <t>statisic xhtml</t>
+  </si>
+  <si>
+    <t>change whole statistic backend, piecharts</t>
   </si>
 </sst>
 </file>
@@ -596,10 +626,10 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -607,7 +637,7 @@
     <col min="1" max="1" width="10.69921875" customWidth="1"/>
     <col min="2" max="2" width="9.69921875" customWidth="1"/>
     <col min="3" max="3" width="48.796875" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="4" max="4" width="57.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="31.2">
@@ -1013,7 +1043,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>40</v>
@@ -1144,64 +1174,200 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>43942</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>43943</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>43944</v>
+      </c>
+      <c r="B41" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8">
+        <v>43853</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>43853</v>
+      </c>
+      <c r="B43" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>43854</v>
+      </c>
+      <c r="B44" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8">
+        <v>43947</v>
+      </c>
+      <c r="B45" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8">
+        <v>43948.04</v>
+      </c>
+      <c r="B46" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>43948</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>43948</v>
+      </c>
+      <c r="B48" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>43951</v>
+      </c>
+      <c r="B49" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>43951</v>
+      </c>
+      <c r="B50" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>43954</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>43954</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8"/>
@@ -5961,7 +6127,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C41 C43:C45 C47:C1001</xm:sqref>
+          <xm:sqref>C2:C53 C55:C57 C59:C1001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
+++ b/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A243578-A0AD-4117-95E4-A9070101A21E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40C136B-F25A-4768-AAF7-F4021FA56972}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5532" yWindow="228" windowWidth="16308" windowHeight="10248" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="14772" yWindow="552" windowWidth="16308" windowHeight="10248" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -214,6 +214,27 @@
   </si>
   <si>
     <t>change whole statistic backend, piecharts</t>
+  </si>
+  <si>
+    <t>booking data, fix isAdmin checkbox</t>
+  </si>
+  <si>
+    <t>Junit tests</t>
+  </si>
+  <si>
+    <t>Color-picker</t>
+  </si>
+  <si>
+    <t>chartjs</t>
+  </si>
+  <si>
+    <t>pie statistic frontend</t>
+  </si>
+  <si>
+    <t>booking longer than 2 workdays ago</t>
+  </si>
+  <si>
+    <t>send email longer than 2 workdays as cron job</t>
   </si>
 </sst>
 </file>
@@ -626,10 +647,10 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1370,64 +1391,170 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B53" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>43955</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="8">
+        <v>43956</v>
+      </c>
+      <c r="B56" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="8">
+        <v>43957</v>
+      </c>
+      <c r="B57" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>43961</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B59" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>43962</v>
+      </c>
+      <c r="B60" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="8">
+        <v>43963</v>
+      </c>
+      <c r="B61" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="8">
+        <v>43965</v>
+      </c>
+      <c r="B62" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>43965</v>
+      </c>
+      <c r="B63" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>43966</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8"/>
@@ -6127,7 +6254,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C53 C55:C57 C59:C1001</xm:sqref>
+          <xm:sqref>C66:C71 C2:C64 C74:C1001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
+++ b/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40C136B-F25A-4768-AAF7-F4021FA56972}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7E4295-A6BC-4EB1-9992-16FC5EB8E01B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14772" yWindow="552" windowWidth="16308" windowHeight="10248" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="73">
   <si>
     <t>Datum</t>
   </si>
@@ -235,6 +235,33 @@
   </si>
   <si>
     <t>send email longer than 2 workdays as cron job</t>
+  </si>
+  <si>
+    <t>Color-picker info, javadoc</t>
+  </si>
+  <si>
+    <t>fix pipeline, delete deprecated</t>
+  </si>
+  <si>
+    <t>search for duplicate statistic bug</t>
+  </si>
+  <si>
+    <t>fix bugs, calendar select backstep statistic</t>
+  </si>
+  <si>
+    <t>select week month statistic</t>
+  </si>
+  <si>
+    <t>Teambesptechung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI screenshots + explaination </t>
+  </si>
+  <si>
+    <t>Testdrehbuch, Use Cases neu schreiben</t>
+  </si>
+  <si>
+    <t>Testdrehbuch, Bugs finden, Konzept</t>
   </si>
 </sst>
 </file>
@@ -647,10 +674,10 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1557,59 +1584,156 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="8">
+        <v>43969</v>
+      </c>
+      <c r="B65" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="8">
+        <v>43969</v>
+      </c>
+      <c r="B66" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="8">
+        <v>43969</v>
+      </c>
+      <c r="B67" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="8">
+        <v>43970</v>
+      </c>
+      <c r="B68" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="7"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="8">
+        <v>43971</v>
+      </c>
+      <c r="B69" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="7"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="8">
+        <v>43972</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="8"/>
-      <c r="B71" s="7"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="8">
+        <v>43973</v>
+      </c>
+      <c r="B71" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="8">
+        <v>43973</v>
+      </c>
+      <c r="B72" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="8">
+        <v>43973</v>
+      </c>
+      <c r="B73" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="7"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="8">
+        <v>43974</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="8"/>
-      <c r="B75" s="7"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="8">
+        <v>43975</v>
+      </c>
+      <c r="B75" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="8"/>
@@ -6254,7 +6378,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C66:C71 C2:C64 C74:C1001</xm:sqref>
+          <xm:sqref>C2:C71 C88:C1001 C73:C80 C82:C86</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
+++ b/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7E4295-A6BC-4EB1-9992-16FC5EB8E01B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BA9AAD-57A3-420C-9FC5-EE69CD370D8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="76">
   <si>
     <t>Datum</t>
   </si>
@@ -252,16 +252,25 @@
     <t>select week month statistic</t>
   </si>
   <si>
-    <t>Teambesptechung</t>
-  </si>
-  <si>
     <t xml:space="preserve">GUI screenshots + explaination </t>
   </si>
   <si>
     <t>Testdrehbuch, Use Cases neu schreiben</t>
   </si>
   <si>
-    <t>Testdrehbuch, Bugs finden, Konzept</t>
+    <t>Testdrehbuch, Bug hunting</t>
+  </si>
+  <si>
+    <t>Testdrehbuch, Bugs hunting, Konzept</t>
+  </si>
+  <si>
+    <t>Testdrehbuch, Konzept überarbeiten</t>
+  </si>
+  <si>
+    <t>drüberlesen</t>
+  </si>
+  <si>
+    <t>Abnahmetest</t>
   </si>
 </sst>
 </file>
@@ -674,10 +683,10 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1690,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1704,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1718,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1726,7 +1735,7 @@
         <v>43975</v>
       </c>
       <c r="B75" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -1736,39 +1745,102 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="8"/>
-      <c r="B76" s="7"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="8">
+        <v>43976</v>
+      </c>
+      <c r="B76" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="8"/>
-      <c r="B77" s="7"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="8">
+        <v>43977</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="8">
+        <v>43978</v>
+      </c>
+      <c r="B78" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="8"/>
-      <c r="B79" s="7"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="8">
+        <v>43979</v>
+      </c>
+      <c r="B79" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="8">
+        <v>43980</v>
+      </c>
+      <c r="B80" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="7"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="8">
+        <v>43981</v>
+      </c>
+      <c r="B81" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="8"/>
-      <c r="B82" s="7"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="8">
+        <v>43987</v>
+      </c>
+      <c r="B82" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="8"/>
@@ -6378,7 +6450,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C71 C88:C1001 C73:C80 C82:C86</xm:sqref>
+          <xm:sqref>C2:C71 C73:C86 C88:C90 C92:C1001</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
+++ b/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BA9AAD-57A3-420C-9FC5-EE69CD370D8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4A5D9F-72F3-4F35-A93A-BC6DCBA4C590}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
   <si>
     <t>Datum</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>Abnahmetest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachbesprechung Abnahmetest </t>
+  </si>
+  <si>
+    <t>logs ui responsive</t>
+  </si>
+  <si>
+    <t>Systemtest</t>
   </si>
 </sst>
 </file>
@@ -683,10 +692,10 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1833,7 +1842,7 @@
         <v>43987</v>
       </c>
       <c r="B82" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -1843,24 +1852,58 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="8"/>
-      <c r="B83" s="7"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="8">
+        <v>43990</v>
+      </c>
+      <c r="B83" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="8"/>
-      <c r="B84" s="7"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="8">
+        <v>43990</v>
+      </c>
+      <c r="B84" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="8"/>
-      <c r="B85" s="7"/>
+      <c r="A85" s="8">
+        <v>43991</v>
+      </c>
+      <c r="B85" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="8"/>
-      <c r="B86" s="7"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="8">
+        <v>43993</v>
+      </c>
+      <c r="B86" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="8"/>

--- a/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
+++ b/docs/Timesheets/Timesheet-Jamie-Hochrainer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Informatik\Semester4\Sepm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4A5D9F-72F3-4F35-A93A-BC6DCBA4C590}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A73334E-EDF0-4CA3-87B5-EFF24BA0A6AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
   <si>
     <t>Datum</t>
   </si>
@@ -276,10 +276,10 @@
     <t xml:space="preserve">Nachbesprechung Abnahmetest </t>
   </si>
   <si>
-    <t>logs ui responsive</t>
-  </si>
-  <si>
     <t>Systemtest</t>
+  </si>
+  <si>
+    <t>logs ui responsive, Teambesprechung</t>
   </si>
 </sst>
 </file>
@@ -692,10 +692,10 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6"/>
@@ -1856,7 +1856,7 @@
         <v>43990</v>
       </c>
       <c r="B83" s="7">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -1870,13 +1870,13 @@
         <v>43990</v>
       </c>
       <c r="B84" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1902,17 +1902,33 @@
         <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="8">
+        <v>43997</v>
+      </c>
+      <c r="B87" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="8"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="8">
+        <v>43997</v>
+      </c>
+      <c r="B88" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4">
@@ -6493,7 +6509,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C71 C73:C86 C88:C90 C92:C1001</xm:sqref>
+          <xm:sqref>C2:C71 C92:C1001 C73:C88 C90</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
